--- a/raw.2017.12.13.14.47.13.xlsx
+++ b/raw.2017.12.13.14.47.13.xlsx
@@ -2,7 +2,6 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
   <si>
     <t>instruments:</t>
   </si>
@@ -115,7 +114,7 @@
     <t>10.0</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9921616E+00
+    <t xml:space="preserve"> 49.9921616E+00_x000D_
 </t>
   </si>
   <si>
@@ -129,7 +128,7 @@
     <t>5.2663352399843921e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9478422E+00
+    <t xml:space="preserve"> 49.9478422E+00_x000D_
 </t>
   </si>
   <si>
@@ -139,7 +138,7 @@
     <t>3.645155821614901e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9890967E+00
+    <t xml:space="preserve"> 49.9890967E+00_x000D_
 </t>
   </si>
   <si>
@@ -149,7 +148,7 @@
     <t>4.3858428130484412e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9794566E+00
+    <t xml:space="preserve"> 49.9794566E+00_x000D_
 </t>
   </si>
   <si>
@@ -159,7 +158,7 @@
     <t>3.7355764792274429e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0152311E+00
+    <t xml:space="preserve"> 50.0152311E+00_x000D_
 </t>
   </si>
   <si>
@@ -169,7 +168,7 @@
     <t>3.5702557471053696e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9773263E+00
+    <t xml:space="preserve"> 49.9773263E+00_x000D_
 </t>
   </si>
   <si>
@@ -182,7 +181,7 @@
     <t>0.02</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0372494E+00
+    <t xml:space="preserve"> 50.0372494E+00_x000D_
 </t>
   </si>
   <si>
@@ -192,7 +191,7 @@
     <t>3.735553920108305e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0345049E+00
+    <t xml:space="preserve"> 50.0345049E+00_x000D_
 </t>
   </si>
   <si>
@@ -205,7 +204,7 @@
     <t>0.03</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9790795E+00
+    <t xml:space="preserve"> 49.9790795E+00_x000D_
 </t>
   </si>
   <si>
@@ -215,7 +214,7 @@
     <t>5.1348205820143185e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9689061E+00
+    <t xml:space="preserve"> 49.9689061E+00_x000D_
 </t>
   </si>
   <si>
@@ -228,7 +227,7 @@
     <t>0.04</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0401076E+00
+    <t xml:space="preserve"> 50.0401076E+00_x000D_
 </t>
   </si>
   <si>
@@ -238,7 +237,7 @@
     <t>3.8575002563152965e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9742067E+00
+    <t xml:space="preserve"> 49.9742067E+00_x000D_
 </t>
   </si>
   <si>
@@ -251,7 +250,7 @@
     <t>0.05</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0063216E+00
+    <t xml:space="preserve"> 50.0063216E+00_x000D_
 </t>
   </si>
   <si>
@@ -261,7 +260,7 @@
     <t>5.3092541283804768e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9878096E+00
+    <t xml:space="preserve"> 49.9878096E+00_x000D_
 </t>
   </si>
   <si>
@@ -274,7 +273,7 @@
     <t>0.06</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0237046E+00
+    <t xml:space="preserve"> 50.0237046E+00_x000D_
 </t>
   </si>
   <si>
@@ -284,7 +283,7 @@
     <t>4.9890145447745588e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0028398E+00
+    <t xml:space="preserve"> 50.0028398E+00_x000D_
 </t>
   </si>
   <si>
@@ -297,7 +296,7 @@
     <t>0.07</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0407360E+00
+    <t xml:space="preserve"> 50.0407360E+00_x000D_
 </t>
   </si>
   <si>
@@ -307,7 +306,7 @@
     <t>4.4228066006365531e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9751256E+00
+    <t xml:space="preserve"> 49.9751256E+00_x000D_
 </t>
   </si>
   <si>
@@ -320,7 +319,7 @@
     <t>0.08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0313593E+00
+    <t xml:space="preserve"> 50.0313593E+00_x000D_
 </t>
   </si>
   <si>
@@ -330,7 +329,7 @@
     <t>4.1837148598447948e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0312790E+00
+    <t xml:space="preserve"> 50.0312790E+00_x000D_
 </t>
   </si>
   <si>
@@ -343,7 +342,7 @@
     <t>0.09</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0237991E+00
+    <t xml:space="preserve"> 50.0237991E+00_x000D_
 </t>
   </si>
   <si>
@@ -353,7 +352,7 @@
     <t>5.1504309372898835e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0459195E+00
+    <t xml:space="preserve"> 50.0459195E+00_x000D_
 </t>
   </si>
   <si>
@@ -363,7 +362,7 @@
     <t>4.6599682990855659e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9487695E+00
+    <t xml:space="preserve"> 49.9487695E+00_x000D_
 </t>
   </si>
   <si>
@@ -373,7 +372,7 @@
     <t>3.2379147471060822e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0093980E+00
+    <t xml:space="preserve"> 50.0093980E+00_x000D_
 </t>
   </si>
   <si>
@@ -383,7 +382,7 @@
     <t>5.4102809540279999e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0573629E+00
+    <t xml:space="preserve"> 50.0573629E+00_x000D_
 </t>
   </si>
   <si>
@@ -393,7 +392,7 @@
     <t>5.1630041071279056e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9403637E+00
+    <t xml:space="preserve"> 49.9403637E+00_x000D_
 </t>
   </si>
   <si>
@@ -403,7 +402,7 @@
     <t>5.3700267357211682e-07</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9887902E+00
+    <t xml:space="preserve"> 49.9887902E+00_x000D_
 </t>
   </si>
   <si>
@@ -413,7 +412,7 @@
     <t>4.9294088893556827e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9900492E+00
+    <t xml:space="preserve"> 49.9900492E+00_x000D_
 </t>
   </si>
   <si>
@@ -423,7 +422,7 @@
     <t>4.2433145119517067e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9749748E+00
+    <t xml:space="preserve"> 49.9749748E+00_x000D_
 </t>
   </si>
   <si>
@@ -433,7 +432,7 @@
     <t>5.5564125663993155e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0421251E+00
+    <t xml:space="preserve"> 50.0421251E+00_x000D_
 </t>
   </si>
   <si>
@@ -443,7 +442,7 @@
     <t>4.4479098154750493e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0516996E+00
+    <t xml:space="preserve"> 50.0516996E+00_x000D_
 </t>
   </si>
   <si>
@@ -453,7 +452,7 @@
     <t>3.8505908507561728e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9340776E+00
+    <t xml:space="preserve"> 49.9340776E+00_x000D_
 </t>
   </si>
   <si>
@@ -463,7 +462,7 @@
     <t>5.6543547076095294e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0716071E+00
+    <t xml:space="preserve"> 50.0716071E+00_x000D_
 </t>
   </si>
   <si>
@@ -473,7 +472,7 @@
     <t>4.5148671530781782e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9680346E+00
+    <t xml:space="preserve"> 49.9680346E+00_x000D_
 </t>
   </si>
   <si>
@@ -483,7 +482,7 @@
     <t>5.6065136338854892e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0298291E+00
+    <t xml:space="preserve"> 50.0298291E+00_x000D_
 </t>
   </si>
   <si>
@@ -493,7 +492,7 @@
     <t>6.4813818811599258e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0101813E+00
+    <t xml:space="preserve"> 50.0101813E+00_x000D_
 </t>
   </si>
   <si>
@@ -503,7 +502,7 @@
     <t>4.3281695262197833e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0094829E+00
+    <t xml:space="preserve"> 50.0094829E+00_x000D_
 </t>
   </si>
   <si>
@@ -513,7 +512,7 @@
     <t>3.3780531537761256e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9300273E+00
+    <t xml:space="preserve"> 49.9300273E+00_x000D_
 </t>
   </si>
   <si>
@@ -523,7 +522,7 @@
     <t>4.1489632015246558e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0423472E+00
+    <t xml:space="preserve"> 50.0423472E+00_x000D_
 </t>
   </si>
   <si>
@@ -533,7 +532,7 @@
     <t>5.0904688573359015e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0336311E+00
+    <t xml:space="preserve"> 50.0336311E+00_x000D_
 </t>
   </si>
   <si>
@@ -543,7 +542,7 @@
     <t>3.946927722590192e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0107901E+00
+    <t xml:space="preserve"> 50.0107901E+00_x000D_
 </t>
   </si>
   <si>
@@ -553,7 +552,7 @@
     <t>3.5280743061910026e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9558833E+00
+    <t xml:space="preserve"> 49.9558833E+00_x000D_
 </t>
   </si>
   <si>
@@ -563,7 +562,7 @@
     <t>3.0982791417361664e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9424531E+00
+    <t xml:space="preserve"> 49.9424531E+00_x000D_
 </t>
   </si>
   <si>
@@ -573,7 +572,7 @@
     <t>5.5811513323008567e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0201591E+00
+    <t xml:space="preserve"> 50.0201591E+00_x000D_
 </t>
   </si>
   <si>
@@ -583,7 +582,7 @@
     <t>8.7915670812348813e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0042692E+00
+    <t xml:space="preserve"> 50.0042692E+00_x000D_
 </t>
   </si>
   <si>
@@ -593,7 +592,7 @@
     <t>6.0539441017994376e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9993302E+00
+    <t xml:space="preserve"> 49.9993302E+00_x000D_
 </t>
   </si>
   <si>
@@ -603,7 +602,7 @@
     <t>5.8732893517501439e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0223496E+00
+    <t xml:space="preserve"> 50.0223496E+00_x000D_
 </t>
   </si>
   <si>
@@ -616,7 +615,7 @@
     <t>-0.01</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9561799E+00
+    <t xml:space="preserve"> 49.9561799E+00_x000D_
 </t>
   </si>
   <si>
@@ -626,7 +625,7 @@
     <t>2.9957832585056392e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9798666E+00
+    <t xml:space="preserve"> 49.9798666E+00_x000D_
 </t>
   </si>
   <si>
@@ -636,7 +635,7 @@
     <t>6.5219218642440404e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0660589E+00
+    <t xml:space="preserve"> 50.0660589E+00_x000D_
 </t>
   </si>
   <si>
@@ -646,7 +645,7 @@
     <t>2.972977270660654e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9892523E+00
+    <t xml:space="preserve"> 49.9892523E+00_x000D_
 </t>
   </si>
   <si>
@@ -656,7 +655,7 @@
     <t>4.2838114206788304e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0095207E+00
+    <t xml:space="preserve"> 50.0095207E+00_x000D_
 </t>
   </si>
   <si>
@@ -666,7 +665,7 @@
     <t>3.957477057592496e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0144334E+00
+    <t xml:space="preserve"> 50.0144334E+00_x000D_
 </t>
   </si>
   <si>
@@ -679,7 +678,7 @@
     <t>-0.02</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9622267E+00
+    <t xml:space="preserve"> 49.9622267E+00_x000D_
 </t>
   </si>
   <si>
@@ -689,7 +688,7 @@
     <t>6.0552308709807764e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0237188E+00
+    <t xml:space="preserve"> 50.0237188E+00_x000D_
 </t>
   </si>
   <si>
@@ -702,7 +701,7 @@
     <t>-0.03</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9997453E+00
+    <t xml:space="preserve"> 49.9997453E+00_x000D_
 </t>
   </si>
   <si>
@@ -712,7 +711,7 @@
     <t>3.5440084141906373e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0271326E+00
+    <t xml:space="preserve"> 50.0271326E+00_x000D_
 </t>
   </si>
   <si>
@@ -725,7 +724,7 @@
     <t>-0.04</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0114743E+00
+    <t xml:space="preserve"> 50.0114743E+00_x000D_
 </t>
   </si>
   <si>
@@ -735,7 +734,7 @@
     <t>3.9743160153619224e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0182661E+00
+    <t xml:space="preserve"> 50.0182661E+00_x000D_
 </t>
   </si>
   <si>
@@ -748,7 +747,7 @@
     <t>-0.05</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9854948E+00
+    <t xml:space="preserve"> 49.9854948E+00_x000D_
 </t>
   </si>
   <si>
@@ -758,7 +757,7 @@
     <t>3.5818697854168529e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9782736E+00
+    <t xml:space="preserve"> 49.9782736E+00_x000D_
 </t>
   </si>
   <si>
@@ -771,7 +770,7 @@
     <t>-0.06</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0046561E+00
+    <t xml:space="preserve"> 50.0046561E+00_x000D_
 </t>
   </si>
   <si>
@@ -781,7 +780,7 @@
     <t>3.495519753620506e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9804228E+00
+    <t xml:space="preserve"> 49.9804228E+00_x000D_
 </t>
   </si>
   <si>
@@ -794,7 +793,7 @@
     <t>-0.07</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0306792E+00
+    <t xml:space="preserve"> 50.0306792E+00_x000D_
 </t>
   </si>
   <si>
@@ -804,7 +803,7 @@
     <t>3.6657103145058421e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9837694E+00
+    <t xml:space="preserve"> 49.9837694E+00_x000D_
 </t>
   </si>
   <si>
@@ -817,7 +816,7 @@
     <t>-0.08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0251636E+00
+    <t xml:space="preserve"> 50.0251636E+00_x000D_
 </t>
   </si>
   <si>
@@ -827,7 +826,7 @@
     <t>4.5715664543705105e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9910346E+00
+    <t xml:space="preserve"> 49.9910346E+00_x000D_
 </t>
   </si>
   <si>
@@ -840,7 +839,7 @@
     <t>-0.09</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9477245E+00
+    <t xml:space="preserve"> 49.9477245E+00_x000D_
 </t>
   </si>
   <si>
@@ -850,7 +849,7 @@
     <t>4.7164673164871129e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0161090E+00
+    <t xml:space="preserve"> 50.0161090E+00_x000D_
 </t>
   </si>
   <si>
@@ -863,7 +862,7 @@
     <t>-0.1</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9948590E+00
+    <t xml:space="preserve"> 49.9948590E+00_x000D_
 </t>
   </si>
   <si>
@@ -873,7 +872,7 @@
     <t>2.9757952933577191e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9060354E+00
+    <t xml:space="preserve"> 49.9060354E+00_x000D_
 </t>
   </si>
   <si>
@@ -883,7 +882,7 @@
     <t>4.8841157704452203e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0150139E+00
+    <t xml:space="preserve"> 50.0150139E+00_x000D_
 </t>
   </si>
   <si>
@@ -893,7 +892,7 @@
     <t>3.9384752760515128e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0168783E+00
+    <t xml:space="preserve"> 50.0168783E+00_x000D_
 </t>
   </si>
   <si>
@@ -903,7 +902,7 @@
     <t>7.4541121262764544e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0075389E+00
+    <t xml:space="preserve"> 50.0075389E+00_x000D_
 </t>
   </si>
   <si>
@@ -913,7 +912,7 @@
     <t>3.2109084245175877e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9561611E+00
+    <t xml:space="preserve"> 49.9561611E+00_x000D_
 </t>
   </si>
   <si>
@@ -923,7 +922,7 @@
     <t>5.300714612310125e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0246537E+00
+    <t xml:space="preserve"> 50.0246537E+00_x000D_
 </t>
   </si>
   <si>
@@ -933,7 +932,7 @@
     <t>4.2062155554861865e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9624669E+00
+    <t xml:space="preserve"> 49.9624669E+00_x000D_
 </t>
   </si>
   <si>
@@ -943,7 +942,7 @@
     <t>3.8399796497810403e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0014151E+00
+    <t xml:space="preserve"> 50.0014151E+00_x000D_
 </t>
   </si>
   <si>
@@ -953,7 +952,7 @@
     <t>4.2363331962312043e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0226046E+00
+    <t xml:space="preserve"> 50.0226046E+00_x000D_
 </t>
   </si>
   <si>
@@ -963,7 +962,7 @@
     <t>4.3653487994205921e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9896248E+00
+    <t xml:space="preserve"> 49.9896248E+00_x000D_
 </t>
   </si>
   <si>
@@ -973,7 +972,7 @@
     <t>6.024643080469793e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0235866E+00
+    <t xml:space="preserve"> 50.0235866E+00_x000D_
 </t>
   </si>
   <si>
@@ -983,7 +982,7 @@
     <t>3.7075589661340983e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9410837E+00
+    <t xml:space="preserve"> 49.9410837E+00_x000D_
 </t>
   </si>
   <si>
@@ -993,7 +992,7 @@
     <t>4.2491003197088246e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0235205E+00
+    <t xml:space="preserve"> 50.0235205E+00_x000D_
 </t>
   </si>
   <si>
@@ -1003,7 +1002,7 @@
     <t>4.793622151075077e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9306435E+00
+    <t xml:space="preserve"> 49.9306435E+00_x000D_
 </t>
   </si>
   <si>
@@ -1013,7 +1012,7 @@
     <t>6.0326440380457966e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9993868E+00
+    <t xml:space="preserve"> 49.9993868E+00_x000D_
 </t>
   </si>
   <si>
@@ -1023,7 +1022,7 @@
     <t>2.7836123522545843e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0302872E+00
+    <t xml:space="preserve"> 50.0302872E+00_x000D_
 </t>
   </si>
   <si>
@@ -1033,7 +1032,7 @@
     <t>4.6542447454250059e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9858436E+00
+    <t xml:space="preserve"> 49.9858436E+00_x000D_
 </t>
   </si>
   <si>
@@ -1043,7 +1042,7 @@
     <t>4.1284599368353013e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9924493E+00
+    <t xml:space="preserve"> 49.9924493E+00_x000D_
 </t>
   </si>
   <si>
@@ -1053,7 +1052,7 @@
     <t>4.8005826637593566e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9705504E+00
+    <t xml:space="preserve"> 49.9705504E+00_x000D_
 </t>
   </si>
   <si>
@@ -1063,7 +1062,7 @@
     <t>4.3209853627726751e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0097802E+00
+    <t xml:space="preserve"> 50.0097802E+00_x000D_
 </t>
   </si>
   <si>
@@ -1073,7 +1072,7 @@
     <t>3.9357336114912468e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0397108E+00
+    <t xml:space="preserve"> 50.0397108E+00_x000D_
 </t>
   </si>
   <si>
@@ -1083,7 +1082,7 @@
     <t>7.068188610455254e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0159202E+00
+    <t xml:space="preserve"> 50.0159202E+00_x000D_
 </t>
   </si>
   <si>
@@ -1093,7 +1092,7 @@
     <t>4.2530147501838647e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0297299E+00
+    <t xml:space="preserve"> 50.0297299E+00_x000D_
 </t>
   </si>
   <si>
@@ -1103,7 +1102,7 @@
     <t>3.1805996042416861e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9838071E+00
+    <t xml:space="preserve"> 49.9838071E+00_x000D_
 </t>
   </si>
   <si>
@@ -1113,7 +1112,7 @@
     <t>4.4131528265490198e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9626835E+00
+    <t xml:space="preserve"> 49.9626835E+00_x000D_
 </t>
   </si>
   <si>
@@ -1123,7 +1122,7 @@
     <t>3.0147577018264354e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0180065E+00
+    <t xml:space="preserve"> 50.0180065E+00_x000D_
 </t>
   </si>
   <si>
@@ -1133,7 +1132,7 @@
     <t>3.6841416242402439e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 50.0545358E+00
+    <t xml:space="preserve"> 50.0545358E+00_x000D_
 </t>
   </si>
   <si>
@@ -1143,7 +1142,7 @@
     <t>3.3317652138002336e-08</t>
   </si>
   <si>
-    <t xml:space="preserve"> 49.9838260E+00
+    <t xml:space="preserve"> 49.9838260E+00_x000D_
 </t>
   </si>
   <si>
@@ -1163,6 +1162,9 @@
   </si>
   <si>
     <t>Effct. DoF</t>
+  </si>
+  <si>
+    <t>Range</t>
   </si>
   <si>
     <t>x linearity</t>
@@ -1215,7 +1217,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -1512,7 +1514,7 @@
   </sheetPr>
   <dimension ref="A1:AK105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -12394,7 +12396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12402,7 +12404,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>345</v>
       </c>
@@ -12415,10 +12417,13 @@
       <c r="D1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999916158675644</v>
@@ -12429,10 +12434,13 @@
       <c r="D2" t="n">
         <v>54.11722805817706</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B3" t="n">
         <v>1.00000315248441</v>
@@ -12443,10 +12451,13 @@
       <c r="D3" t="n">
         <v>47.65496536125958</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B4" t="n">
         <v>0.9999644893234579</v>
@@ -12457,10 +12468,13 @@
       <c r="D4" t="n">
         <v>51.10119936294383</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" t="n">
         <v>0.9999708503659723</v>
@@ -12471,10 +12485,13 @@
       <c r="D5" t="n">
         <v>61.96396575355222</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B6" t="n">
         <v>0.9999933900336889</v>
@@ -12485,10 +12502,13 @@
       <c r="D6" t="n">
         <v>55.75913381049559</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B7" t="n">
         <v>-1.000031604198813</v>
@@ -12499,10 +12519,13 @@
       <c r="D7" t="n">
         <v>41.93613821956109</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B8" t="n">
         <v>0.9999832119785297</v>
@@ -12513,10 +12536,13 @@
       <c r="D8" t="n">
         <v>53.6999714883345</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B9" t="n">
         <v>-1.000049277892154</v>
@@ -12527,8 +12553,11 @@
       <c r="D9" t="n">
         <v>60.52149569924817</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -12541,10 +12570,13 @@
       <c r="D10" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B11" t="n">
         <v>0.999998640902493</v>
@@ -12555,10 +12587,13 @@
       <c r="D11" t="n">
         <v>49.14124225983857</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B12" t="n">
         <v>0.9999977856214325</v>
@@ -12569,10 +12604,13 @@
       <c r="D12" t="n">
         <v>31.14154209480693</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B13" t="n">
         <v>0.9999969221710352</v>
@@ -12583,10 +12621,13 @@
       <c r="D13" t="n">
         <v>34.32099055053742</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B14" t="n">
         <v>1.000009799811334</v>
@@ -12597,10 +12638,13 @@
       <c r="D14" t="n">
         <v>47.45334151602507</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B15" t="n">
         <v>1.00000416183418</v>
@@ -12611,10 +12655,13 @@
       <c r="D15" t="n">
         <v>51.08109566045659</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B16" t="n">
         <v>-1.000051071040077</v>
@@ -12625,10 +12672,13 @@
       <c r="D16" t="n">
         <v>31.31480320137723</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B17" t="n">
         <v>1.000001968219008</v>
@@ -12639,10 +12689,13 @@
       <c r="D17" t="n">
         <v>49.20401150932179</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B18" t="n">
         <v>-1.000046625637417</v>
@@ -12652,6 +12705,9 @@
       </c>
       <c r="D18" t="n">
         <v>45.30683409595279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -12665,7 +12721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12673,7 +12729,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>345</v>
       </c>
@@ -12686,10 +12742,13 @@
       <c r="D1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B2" t="n">
         <v>0.9999916158675644</v>
@@ -12700,10 +12759,13 @@
       <c r="D2" t="n">
         <v>54.11722805817706</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B3" t="n">
         <v>1.00000315248441</v>
@@ -12714,10 +12776,13 @@
       <c r="D3" t="n">
         <v>47.65496536125958</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B4" t="n">
         <v>0.9999644893234579</v>
@@ -12728,10 +12793,13 @@
       <c r="D4" t="n">
         <v>51.10119936294383</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B5" t="n">
         <v>0.9999708503659723</v>
@@ -12742,10 +12810,13 @@
       <c r="D5" t="n">
         <v>61.96396575355222</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B6" t="n">
         <v>0.9999933900336889</v>
@@ -12756,10 +12827,13 @@
       <c r="D6" t="n">
         <v>55.75913381049559</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B7" t="n">
         <v>-1.000031604198813</v>
@@ -12770,10 +12844,13 @@
       <c r="D7" t="n">
         <v>41.93613821956109</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B8" t="n">
         <v>0.9999832119785297</v>
@@ -12784,10 +12861,13 @@
       <c r="D8" t="n">
         <v>53.6999714883345</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B9" t="n">
         <v>-1.000049277892154</v>
@@ -12798,8 +12878,11 @@
       <c r="D9" t="n">
         <v>60.52149569924817</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>345</v>
       </c>
@@ -12812,10 +12895,13 @@
       <c r="D10" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B11" t="n">
         <v>0.999998640902493</v>
@@ -12826,10 +12912,13 @@
       <c r="D11" t="n">
         <v>49.14124225983857</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B12" t="n">
         <v>0.9999977856214325</v>
@@ -12840,10 +12929,13 @@
       <c r="D12" t="n">
         <v>31.14154209480693</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B13" t="n">
         <v>0.9999969221710352</v>
@@ -12854,10 +12946,13 @@
       <c r="D13" t="n">
         <v>34.32099055053742</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B14" t="n">
         <v>1.000009799811334</v>
@@ -12868,10 +12963,13 @@
       <c r="D14" t="n">
         <v>47.45334151602507</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B15" t="n">
         <v>1.00000416183418</v>
@@ -12882,10 +12980,13 @@
       <c r="D15" t="n">
         <v>51.08109566045659</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B16" t="n">
         <v>-1.000051071040077</v>
@@ -12896,10 +12997,13 @@
       <c r="D16" t="n">
         <v>31.31480320137723</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B17" t="n">
         <v>1.000001968219008</v>
@@ -12910,10 +13014,13 @@
       <c r="D17" t="n">
         <v>49.20401150932179</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B18" t="n">
         <v>-1.000046625637417</v>
@@ -12923,6 +13030,9 @@
       </c>
       <c r="D18" t="n">
         <v>45.30683409595279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/raw.2017.12.13.14.47.13.xlsx
+++ b/raw.2017.12.13.14.47.13.xlsx
@@ -9,6 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13038,4 +13040,654 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9999916158675644</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.090220841882094e-06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.11722805817706</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.00000315248441</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.088869251436718e-06</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.65496536125958</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9999644893234579</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.097173042129777e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.10119936294383</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9999708503659723</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.023601576253771e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.96396575355222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9999933900336889</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.009981742479961e-06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>55.75913381049559</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.000031604198813</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.762232149208377e-06</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.93613821956109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9999832119785297</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.108533595146293e-06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53.6999714883345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.000049277892154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.402893981848717e-06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60.52149569924817</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.999998640902493</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.610208643080906e-06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>49.14124225983857</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9999977856214325</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.459234129138917e-06</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.14154209480693</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9999969221710352</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.54742928375995e-06</v>
+      </c>
+      <c r="D13" t="n">
+        <v>34.32099055053742</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.000009799811334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.727867001790709e-06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>47.45334151602507</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.00000416183418</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.365936804738115e-06</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51.08109566045659</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.000051071040077</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.472422039233697e-06</v>
+      </c>
+      <c r="D16" t="n">
+        <v>31.31480320137723</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.000001968219008</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.6273997455357e-06</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49.20401150932179</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.000046625637417</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.825519414645741e-06</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45.30683409595279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9999916158675644</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5.090220841882094e-06</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.11722805817706</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.00000315248441</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.088869251436718e-06</v>
+      </c>
+      <c r="D3" t="n">
+        <v>47.65496536125958</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9999644893234579</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.097173042129777e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.10119936294383</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9999708503659723</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.023601576253771e-05</v>
+      </c>
+      <c r="D5" t="n">
+        <v>61.96396575355222</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9999933900336889</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.009981742479961e-06</v>
+      </c>
+      <c r="D6" t="n">
+        <v>55.75913381049559</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.000031604198813</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.762232149208377e-06</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.93613821956109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9999832119785297</v>
+      </c>
+      <c r="C8" t="n">
+        <v>8.108533595146293e-06</v>
+      </c>
+      <c r="D8" t="n">
+        <v>53.6999714883345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-1.000049277892154</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.402893981848717e-06</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60.52149569924817</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.999998640902493</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.610208643080906e-06</v>
+      </c>
+      <c r="D11" t="n">
+        <v>49.14124225983857</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.9999977856214325</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7.459234129138917e-06</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.14154209480693</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9999969221710352</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.54742928375995e-06</v>
+      </c>
+      <c r="D13" t="n">
+        <v>34.32099055053742</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.000009799811334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.727867001790709e-06</v>
+      </c>
+      <c r="D14" t="n">
+        <v>47.45334151602507</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.00000416183418</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.365936804738115e-06</v>
+      </c>
+      <c r="D15" t="n">
+        <v>51.08109566045659</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.000051071040077</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.472422039233697e-06</v>
+      </c>
+      <c r="D16" t="n">
+        <v>31.31480320137723</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.000001968219008</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5.6273997455357e-06</v>
+      </c>
+      <c r="D17" t="n">
+        <v>49.20401150932179</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.000046625637417</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.825519414645741e-06</v>
+      </c>
+      <c r="D18" t="n">
+        <v>45.30683409595279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>